--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667DFDD-868F-E643-9B77-9F4078D88B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3465CE-D44D-8D43-955C-B82F17949373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,33 +130,6 @@
     <t>Get</t>
   </si>
   <si>
-    <t>/Apps Date/PrisonBreak.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/LudoKing.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/FreeFire.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/SubwaySurfers.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/BikeDriving.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/TalkingTom2.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/BGMI.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/CarromPool.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/SubwayPrincess.webp</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -251,6 +224,33 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/PrisonBreak.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/LudoKing.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/FreeFire.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/SubwaySurfers.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/BikeDriving.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/TalkingTom2.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/BGMI.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/CarromPool.webp</t>
+  </si>
+  <si>
+    <t>Zula/Apps Date/SubwayPrincess.webp</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6A589-14D5-8946-9139-48597189C302}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -674,55 +674,55 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>55</v>
-      </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AD1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>4.5</v>
@@ -745,49 +745,49 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R2">
         <v>1000</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>4.2</v>
@@ -833,7 +833,7 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>4.4000000000000004</v>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>4.2</v>
@@ -879,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>4.2</v>
@@ -902,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>4.2</v>
@@ -925,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>4.5999999999999996</v>
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>4.0999999999999996</v>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3465CE-D44D-8D43-955C-B82F17949373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCE64C-EF89-1944-845D-AECE74EC48CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
   </bookViews>
@@ -226,31 +226,31 @@
     <t>16</t>
   </si>
   <si>
-    <t>Zula/Apps Date/PrisonBreak.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/LudoKing.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/FreeFire.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/SubwaySurfers.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/BikeDriving.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/TalkingTom2.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/BGMI.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/CarromPool.webp</t>
-  </si>
-  <si>
-    <t>Zula/Apps Date/SubwayPrincess.webp</t>
+    <t>/Apps Date/PrisonBreak.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/LudoKing.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/FreeFire.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/SubwaySurfers.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/BikeDriving.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/TalkingTom2.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/BGMI.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/CarromPool.webp</t>
+  </si>
+  <si>
+    <t>/Apps Date/SubwayPrincess.webp</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6A589-14D5-8946-9139-48597189C302}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCE64C-EF89-1944-845D-AECE74EC48CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272B557-2AFE-CF44-90A9-C571C47084F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,18 +181,6 @@
     <t>img8</t>
   </si>
   <si>
-    <t>/Apps Date/1/1.png</t>
-  </si>
-  <si>
-    <t>/Apps Date/1/2.png</t>
-  </si>
-  <si>
-    <t>/Apps Date/1/3.png</t>
-  </si>
-  <si>
-    <t>/Apps Date/1/4.png</t>
-  </si>
-  <si>
     <t>Licence</t>
   </si>
   <si>
@@ -226,31 +214,43 @@
     <t>16</t>
   </si>
   <si>
-    <t>/Apps Date/PrisonBreak.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/LudoKing.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/FreeFire.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/SubwaySurfers.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/BikeDriving.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/TalkingTom2.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/BGMI.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/CarromPool.webp</t>
-  </si>
-  <si>
-    <t>/Apps Date/SubwayPrincess.webp</t>
+    <t>/Zula/public/Apps Date/PrisonBreak.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/LudoKing.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/FreeFire.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/SubwaySurfers.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/BikeDriving.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/BGMI.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/CarromPool.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/SubwayPrincess.webp</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/1/1.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/1/2.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/1/3.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/1/4.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Apps Date/TalkingTom2.webp</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6A589-14D5-8946-9139-48597189C302}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -689,10 +689,10 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
         <v>40</v>
@@ -719,10 +719,10 @@
         <v>47</v>
       </c>
       <c r="AC1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>4.5</v>
@@ -745,10 +745,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -766,28 +766,28 @@
         <v>1000</v>
       </c>
       <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>4.2</v>
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>4.4000000000000004</v>
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>4.2</v>
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>4.2</v>
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>4.2</v>
@@ -939,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>4.5999999999999996</v>
@@ -962,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>4.0999999999999996</v>

--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272B557-2AFE-CF44-90A9-C571C47084F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC339192-6954-844C-8808-CA6B375B4F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15860" xr2:uid="{4D295973-0C64-244F-9DE1-69F5A5749FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,43 +214,43 @@
     <t>16</t>
   </si>
   <si>
-    <t>/Zula/public/Apps Date/PrisonBreak.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/LudoKing.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/FreeFire.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/SubwaySurfers.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/BikeDriving.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/BGMI.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/CarromPool.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/SubwayPrincess.webp</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/1/1.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/1/2.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/1/3.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/1/4.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Apps Date/TalkingTom2.webp</t>
+    <t>/Zula/Apps Date/PrisonBreak.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/LudoKing.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/FreeFire.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/SubwaySurfers.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/BikeDriving.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/TalkingTom2.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/BGMI.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/CarromPool.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/SubwayPrincess.webp</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/1/1.png</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/1/2.png</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/1/3.png</t>
+  </si>
+  <si>
+    <t>/Zula/Apps Date/1/4.png</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6A589-14D5-8946-9139-48597189C302}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,16 +772,16 @@
         <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>58</v>
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>4.2</v>
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>4.2</v>
@@ -939,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>4.5999999999999996</v>
@@ -962,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>4.0999999999999996</v>
